--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>id|</t>
   </si>
@@ -128,12 +128,6 @@
     <t>enable|开关</t>
   </si>
   <si>
-    <t>3d捕鱼比赛1</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>type|类型</t>
   </si>
   <si>
@@ -177,15 +171,6 @@
   </si>
   <si>
     <t>1.01,1.02,1.03,1.04,1.05,1.06,1.07,1.08,1.09,1.1</t>
-  </si>
-  <si>
-    <t>2d捕鱼1500发子弹,高炮加成</t>
-  </si>
-  <si>
-    <t>fishing_game</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,3,4,5,7</t>
   </si>
   <si>
     <t>id|行号</t>
@@ -328,9 +313,6 @@
     <t>signup_spend_id|进入条件id</t>
   </si>
   <si>
-    <t>prop_gns_ticket</t>
-  </si>
-  <si>
     <t>signup_spend_id|报名费id</t>
   </si>
   <si>
@@ -354,22 +336,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>everyday_rank_id|每日榜单排行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -403,6 +369,57 @@
   </si>
   <si>
     <t>100000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_limit_min|最小上榜分数</t>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9,</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +580,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +665,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -976,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -985,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -1002,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -1011,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1028,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1037,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1054,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1063,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1075,33 +1101,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="D7" s="10"/>
@@ -1109,16 +1117,16 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -1217,14 +1225,6 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1235,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1280,7 +1280,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,7 +1297,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1314,7 +1314,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1331,22 +1331,13 @@
         <v>200</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>900</v>
-      </c>
-      <c r="D6" s="20">
-        <v>200</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -1372,11 +1363,6 @@
       <c r="A11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1388,159 +1374,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="65.25" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="3" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="65.25" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1201</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1201</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1201</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C8" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1563,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1590,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
@@ -1609,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="3"/>
@@ -1628,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1645,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1662,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1679,10 +1662,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1696,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1713,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1730,10 +1713,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
@@ -1749,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
@@ -1768,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
@@ -1787,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
@@ -1815,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1834,28 +1817,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1865,21 +1848,21 @@
       <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
+      <c r="C2" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="25">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1889,10 +1872,10 @@
       <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="C3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="24">
@@ -1900,7 +1883,7 @@
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -1912,17 +1895,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="25">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="24">
         <v>1</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -1933,18 +1916,18 @@
       <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>32</v>
+      <c r="C5" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="25">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -1955,11 +1938,11 @@
       <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="25">
-        <v>100000</v>
+      <c r="C6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" s="24">
         <v>1</v>
@@ -1967,6 +1950,125 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24">
+        <v>6</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="25">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="25">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24">
+        <v>11</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -1997,19 +2099,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2017,17 +2119,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2035,10 +2137,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
@@ -2050,10 +2152,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
@@ -2066,10 +2168,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -2081,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>100000</v>
@@ -2096,10 +2198,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -2111,10 +2213,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
@@ -2126,10 +2228,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>300000</v>
@@ -2141,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>100000</v>
@@ -2156,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
@@ -2171,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>500000</v>
@@ -2186,10 +2288,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>200000</v>
@@ -5882,16 +5984,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5902,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5916,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5930,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -5944,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -5958,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -5972,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -5986,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -6000,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -6014,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -6028,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -6042,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -6056,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -6070,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -6084,7 +6186,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -6098,7 +6200,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -6112,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -6212,19 +6314,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -6235,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" s="27">
         <v>2500</v>
@@ -6250,13 +6352,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15">
         <v>1500</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -6267,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="27">
         <v>1000</v>
@@ -6281,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="27">
         <v>700</v>
@@ -6297,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6">
         <v>5000</v>
@@ -6312,13 +6414,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -6329,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>2000</v>
@@ -6344,7 +6446,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>1400.0000000000002</v>
@@ -6358,7 +6460,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" s="27">
         <v>12500</v>
@@ -6373,13 +6475,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="27">
         <v>7500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -6390,7 +6492,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="27">
         <v>5000</v>
@@ -6405,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" s="27">
         <v>3500.0000000000005</v>
@@ -6420,7 +6522,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
         <v>25000</v>
@@ -6434,13 +6536,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
         <v>15000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6451,7 +6553,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
         <v>10000</v>
@@ -6466,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <v>7000.0000000000009</v>

--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
-    <sheet name="cfg|比赛配置" sheetId="24" r:id="rId2"/>
-    <sheet name="data|比赛数据" sheetId="29" r:id="rId3"/>
-    <sheet name="rank|排名数据" sheetId="30" r:id="rId4"/>
-    <sheet name="signup_spend|报名费" sheetId="33" r:id="rId5"/>
-    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId6"/>
-    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId7"/>
-    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId8"/>
+    <sheet name="fixed_rank|托管占位" sheetId="34" r:id="rId2"/>
+    <sheet name="rank_time|上榜时间" sheetId="35" r:id="rId3"/>
+    <sheet name="cfg|比赛配置" sheetId="24" r:id="rId4"/>
+    <sheet name="data|比赛数据" sheetId="29" r:id="rId5"/>
+    <sheet name="rank|排名数据" sheetId="30" r:id="rId6"/>
+    <sheet name="signup_spend|报名费" sheetId="33" r:id="rId7"/>
+    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId8"/>
+    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId9"/>
+    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -111,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>id|</t>
   </si>
@@ -340,86 +342,134 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>4,10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_limit_min|最小上榜分数</t>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_rank_id</t>
+  </si>
+  <si>
+    <t>rank_time_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>fixed_rank_id|占位id</t>
+  </si>
+  <si>
+    <t>rank_range|排名范围</t>
+  </si>
+  <si>
+    <t>num|占位数量</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>11,15</t>
+  </si>
+  <si>
+    <t>rank_time_id|场次id</t>
+  </si>
+  <si>
+    <t>time_range|时间范围</t>
+  </si>
+  <si>
+    <t>power|权重</t>
+  </si>
+  <si>
+    <t>83640,6720</t>
+  </si>
+  <si>
+    <t>6720,29580</t>
+  </si>
+  <si>
+    <t>29580,45300</t>
+  </si>
+  <si>
+    <t>45300,65580</t>
+  </si>
+  <si>
+    <t>65580,83640</t>
+  </si>
+  <si>
     <t>1500,99999999999</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1201,1499</t>
+    <t>1000,1299</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1000,1200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank_limit_min|最小上榜分数</t>
-  </si>
-  <si>
-    <t>obj_3d_50flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_50flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_200flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_200flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_500flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12,13,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,9,</t>
+    <t>1300,1499</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +477,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +576,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +638,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +734,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -955,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,9 +1037,11 @@
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1066,14 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1011,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -1022,8 +1098,14 @@
       <c r="H2" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="33">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1037,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1048,8 +1130,14 @@
       <c r="H3" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="33">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1063,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1074,8 +1162,14 @@
       <c r="H4" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="33">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1089,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1100,8 +1194,14 @@
       <c r="H5" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="33">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="10"/>
       <c r="D6" s="10"/>
@@ -1109,7 +1209,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="D7" s="10"/>
@@ -1117,12 +1217,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
@@ -1130,7 +1230,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -1138,7 +1238,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
@@ -1146,7 +1246,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
@@ -1154,7 +1254,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
@@ -1162,7 +1262,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
@@ -1170,7 +1270,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
@@ -1229,16 +1329,892 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="27">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="27">
+        <v>700</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1400.0000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="27">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="27">
+        <v>7500</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="27">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="27">
+        <v>3500.0000000000005</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7000.0000000000009</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="21.625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="33" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>3</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>4</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="19.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11" style="33" customWidth="1"/>
+    <col min="5" max="6" width="9" style="34"/>
+    <col min="7" max="12" width="9" style="33"/>
+    <col min="13" max="13" width="12.75" style="33" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="33">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="33">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="33">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="33">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="33">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="33">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>2</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="33">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="33">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="33">
+        <v>15</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="33">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>3</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="33">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>3</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="33">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="33">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>4</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="33">
+        <v>15</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>4</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="33">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33">
+        <v>4</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="33">
+        <v>10</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33">
+        <v>4</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="33">
+        <v>30</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33">
+        <v>4</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="33">
+        <v>40</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1372,7 +2348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1402,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1428,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -1454,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -1480,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1503,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -1527,12 +2503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1573,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>36</v>
@@ -1592,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -1611,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -1628,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -1645,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -1662,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -1679,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>55</v>
@@ -1696,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -1713,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1732,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -1751,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -1770,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -1796,12 +2772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1849,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
@@ -1873,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1917,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -1939,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1976,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -1993,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2027,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -2044,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2076,12 +3052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5969,12 +6945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6046,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -6102,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -6158,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -6214,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -6294,323 +7270,4 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="27">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="27">
-        <v>700</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1400.0000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="27">
-        <v>12500</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="27">
-        <v>7500</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="27">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="27">
-        <v>3500.0000000000005</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7000.0000000000009</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t>id|</t>
   </si>
@@ -318,22 +318,6 @@
     <t>signup_spend_id|报名费id</t>
   </si>
   <si>
-    <t>50福利券赛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200福利券赛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500福利券赛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券赛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1=100红包券</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -346,22 +330,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>rank_limit_min|最小上榜分数</t>
   </si>
   <si>
@@ -397,10 +365,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>11,12,13,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -446,9 +410,6 @@
     <t>power|权重</t>
   </si>
   <si>
-    <t>83640,6720</t>
-  </si>
-  <si>
     <t>6720,29580</t>
   </si>
   <si>
@@ -458,18 +419,43 @@
     <t>45300,65580</t>
   </si>
   <si>
-    <t>65580,83640</t>
-  </si>
-  <si>
-    <t>1500,99999999999</t>
+    <t>10,11,12,</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1000,1299</t>
+    <t>65580,85440</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1300,1499</t>
+    <t>120,6720</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050,1399</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400,1749</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1750,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +570,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -638,7 +646,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +709,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,9 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,6 +746,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1026,7 +1043,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,7 +1052,7 @@
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="5" width="25.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -1054,23 +1071,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>88</v>
+      <c r="I1" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1078,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -1087,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -1098,10 +1115,10 @@
       <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="33">
-        <v>1</v>
-      </c>
-      <c r="J2" s="33">
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1110,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -1119,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1130,10 +1147,10 @@
       <c r="H3" s="18">
         <v>1</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <v>2</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1142,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1151,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1162,10 +1179,10 @@
       <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <v>3</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1174,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1183,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1194,10 +1211,10 @@
       <c r="H5" s="18">
         <v>1</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <v>4</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="31">
         <v>4</v>
       </c>
     </row>
@@ -1335,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G21" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,7 +1366,7 @@
     <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,69 +1383,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="27">
-        <v>2500</v>
+      <c r="D2" s="26">
+        <v>250</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D4" s="26">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="27">
-        <v>700</v>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26">
+        <v>25000</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1439,11 +1455,11 @@
         <v>42</v>
       </c>
       <c r="D6" s="6">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1454,13 +1470,11 @@
         <v>42</v>
       </c>
       <c r="D7" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1471,87 +1485,86 @@
         <v>42</v>
       </c>
       <c r="D8" s="6">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>1400.0000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="27">
-        <v>12500</v>
+      <c r="D10" s="26">
+        <v>25000</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="27">
-        <v>7500</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D11" s="26">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>5000</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27">
-        <v>3500.0000000000005</v>
+      <c r="D13" s="26">
+        <v>2500</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1562,10 +1575,11 @@
         <v>42</v>
       </c>
       <c r="D14" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>250000</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1576,13 +1590,11 @@
         <v>42</v>
       </c>
       <c r="D15" s="6">
-        <v>15000</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1593,11 +1605,11 @@
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1608,43 +1620,127 @@
         <v>42</v>
       </c>
       <c r="D17" s="6">
-        <v>7000.0000000000009</v>
+        <v>25000</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1657,141 +1753,141 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="33"/>
-    <col min="2" max="2" width="21.625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="33" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="21.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>92</v>
+      <c r="A1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="33">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
+      <c r="C4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="C6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="33">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
-        <v>2</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>3</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>3</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>4</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1806,359 +1902,359 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="33"/>
-    <col min="2" max="2" width="19.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11" style="33" customWidth="1"/>
-    <col min="5" max="6" width="9" style="34"/>
-    <col min="7" max="12" width="9" style="33"/>
-    <col min="13" max="13" width="12.75" style="33" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="19.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11" style="31" customWidth="1"/>
+    <col min="5" max="6" width="9" style="32"/>
+    <col min="7" max="12" width="9" style="31"/>
+    <col min="13" max="13" width="12.625" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="33">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="31">
         <v>15</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="31">
         <v>5</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="B4" s="31">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="31">
         <v>10</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="31">
         <v>30</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="B6" s="31">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="31">
         <v>40</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="31">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>2</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="33">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="31">
         <v>10</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="C10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="31">
         <v>30</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="C11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="31">
         <v>40</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="C12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="31">
         <v>15</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>3</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="C13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="31">
         <v>5</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="33">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="31">
         <v>3</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="33">
+      <c r="C14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="31">
         <v>10</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>3</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="31">
         <v>30</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>3</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="C16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="31">
         <v>40</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>4</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="C17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="31">
         <v>15</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>4</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="31">
         <v>5</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>4</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="C19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="31">
         <v>10</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>4</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="33">
+      <c r="C20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="31">
         <v>30</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>4</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="33">
+      <c r="C21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="31">
         <v>40</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="33"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
@@ -2214,12 +2310,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D25" sqref="D21:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
@@ -2353,15 +2449,15 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="65.25" customWidth="1"/>
+    <col min="3" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="65.125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
@@ -2378,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -2404,7 +2500,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -2430,7 +2526,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -2456,7 +2552,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2479,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -2508,7 +2604,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2549,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>36</v>
@@ -2568,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -2587,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -2604,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -2621,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -2638,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -2655,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>55</v>
@@ -2672,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -2689,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -2708,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -2727,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -2746,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -2769,15 +2865,16 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2788,263 +2885,287 @@
     <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
     <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>76</v>
+      <c r="C3" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>5000</v>
       </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
+      <c r="C5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>5</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>78</v>
+      <c r="C6" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="25">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7" s="24">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="C8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>80</v>
+      <c r="C9" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="25">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="D10" s="24">
+        <v>500000</v>
+      </c>
+      <c r="E10" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="C11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>11</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>82</v>
+      <c r="C12" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="25">
-        <v>100000</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
+      <c r="D13" s="24">
+        <v>5000000</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E36" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -3054,26 +3175,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="37.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="40" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3086,11 +3207,11 @@
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3103,12 +3224,11 @@
       <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3119,11 +3239,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3136,10 +3255,9 @@
       <c r="D4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3150,11 +3268,10 @@
         <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>200</v>
-      </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3165,11 +3282,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3180,11 +3296,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3195,11 +3310,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>500</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3207,14 +3321,13 @@
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>300000</v>
-      </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3222,14 +3335,13 @@
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3240,11 +3352,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3252,14 +3363,13 @@
         <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3267,12 +3377,11 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F13" s="22"/>
+        <v>10000</v>
+      </c>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
@@ -3303,3640 +3412,2936 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
     </row>
-    <row r="195" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
     </row>
-    <row r="198" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
-      <c r="G224" s="6"/>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
-      <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
-      <c r="H226" s="6"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
-      <c r="H227" s="6"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
-      <c r="G228" s="6"/>
-      <c r="H228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
-      <c r="H231" s="6"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
-      <c r="H232" s="6"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="G233" s="6"/>
-      <c r="H233" s="6"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
-      <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
-      <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
-      <c r="H236" s="6"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
-      <c r="H248" s="6"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
-      <c r="G249" s="6"/>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
-      <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
-      <c r="H252" s="6"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
-      <c r="H253" s="6"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
-      <c r="H255" s="6"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
-      <c r="G261" s="6"/>
-      <c r="H261" s="6"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="6"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
-    </row>
-    <row r="265" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
     </row>
-    <row r="267" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
     </row>
-    <row r="269" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
     </row>
-    <row r="270" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
     </row>
-    <row r="272" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
     </row>
-    <row r="273" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
     </row>
-    <row r="274" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
     </row>
-    <row r="275" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
     </row>
-    <row r="276" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="6"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
-      <c r="G293" s="6"/>
-      <c r="H293" s="6"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
-      <c r="G294" s="6"/>
-      <c r="H294" s="6"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
-      <c r="G295" s="6"/>
-      <c r="H295" s="6"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
-      <c r="G296" s="6"/>
-      <c r="H296" s="6"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
-      <c r="H297" s="6"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
-      <c r="H298" s="6"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
-      <c r="H299" s="6"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
-      <c r="G300" s="6"/>
-      <c r="H300" s="6"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="6"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
-      <c r="H302" s="6"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
-      <c r="H303" s="6"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
-      <c r="G305" s="6"/>
-      <c r="H305" s="6"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
-      <c r="G306" s="6"/>
-      <c r="H306" s="6"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
-      <c r="G307" s="6"/>
-      <c r="H307" s="6"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
-      <c r="G308" s="6"/>
-      <c r="H308" s="6"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
-      <c r="G309" s="6"/>
-      <c r="H309" s="6"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
-      <c r="G310" s="6"/>
-      <c r="H310" s="6"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
-      <c r="G311" s="6"/>
-      <c r="H311" s="6"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
-      <c r="G313" s="6"/>
-      <c r="H313" s="6"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
-      <c r="H315" s="6"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="6"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
-      <c r="H317" s="6"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="6"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
-      <c r="G321" s="6"/>
-      <c r="H321" s="6"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
-      <c r="G322" s="6"/>
-      <c r="H322" s="6"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="6"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
-      <c r="H324" s="6"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
-      <c r="G325" s="6"/>
-      <c r="H325" s="6"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
-      <c r="G326" s="6"/>
-      <c r="H326" s="6"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
-      <c r="G327" s="6"/>
-      <c r="H327" s="6"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
-      <c r="G328" s="6"/>
-      <c r="H328" s="6"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
-      <c r="G331" s="6"/>
-      <c r="H331" s="6"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
-      <c r="H332" s="6"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
-      <c r="G333" s="6"/>
-      <c r="H333" s="6"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="6"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
-      <c r="H335" s="6"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-      <c r="H338" s="6"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
-      <c r="H339" s="6"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
-      <c r="H340" s="6"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
-      <c r="H341" s="6"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-      <c r="H342" s="6"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-      <c r="H343" s="6"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="6"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
-      <c r="G345" s="6"/>
-      <c r="H345" s="6"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
-      <c r="G347" s="6"/>
-      <c r="H347" s="6"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
-      <c r="G348" s="6"/>
-      <c r="H348" s="6"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
-      <c r="H349" s="6"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
-      <c r="G350" s="6"/>
-      <c r="H350" s="6"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
-      <c r="H351" s="6"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
-      <c r="G352" s="6"/>
-      <c r="H352" s="6"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
-      <c r="G353" s="6"/>
-      <c r="H353" s="6"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
-      <c r="G354" s="6"/>
-      <c r="H354" s="6"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
-      <c r="H355" s="6"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
-      <c r="G356" s="6"/>
-      <c r="H356" s="6"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
-      <c r="G357" s="6"/>
-      <c r="H357" s="6"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
-      <c r="G358" s="6"/>
-      <c r="H358" s="6"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
-      <c r="G359" s="6"/>
-      <c r="H359" s="6"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
-      <c r="G360" s="6"/>
-      <c r="H360" s="6"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
-      <c r="G361" s="6"/>
-      <c r="H361" s="6"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
-      <c r="G362" s="6"/>
-      <c r="H362" s="6"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
-      <c r="G363" s="6"/>
-      <c r="H363" s="6"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
-      <c r="G364" s="6"/>
-      <c r="H364" s="6"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
-      <c r="G365" s="6"/>
-      <c r="H365" s="6"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
-      <c r="G366" s="6"/>
-      <c r="H366" s="6"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
-      <c r="G367" s="6"/>
-      <c r="H367" s="6"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
-      <c r="G368" s="6"/>
-      <c r="H368" s="6"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
-      <c r="G369" s="6"/>
-      <c r="H369" s="6"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
-      <c r="G370" s="6"/>
-      <c r="H370" s="6"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
-      <c r="G371" s="6"/>
-      <c r="H371" s="6"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
-      <c r="G372" s="6"/>
-      <c r="H372" s="6"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
-      <c r="G373" s="6"/>
-      <c r="H373" s="6"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
-      <c r="G374" s="6"/>
-      <c r="H374" s="6"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
-      <c r="G375" s="6"/>
-      <c r="H375" s="6"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
-      <c r="G376" s="6"/>
-      <c r="H376" s="6"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
-      <c r="G377" s="6"/>
-      <c r="H377" s="6"/>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
-      <c r="G378" s="6"/>
-      <c r="H378" s="6"/>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
-      <c r="G379" s="6"/>
-      <c r="H379" s="6"/>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
-      <c r="G380" s="6"/>
-      <c r="H380" s="6"/>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
-      <c r="G381" s="6"/>
-      <c r="H381" s="6"/>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
-      <c r="G382" s="6"/>
-      <c r="H382" s="6"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
-      <c r="G383" s="6"/>
-      <c r="H383" s="6"/>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
-      <c r="G384" s="6"/>
-      <c r="H384" s="6"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
-      <c r="G385" s="6"/>
-      <c r="H385" s="6"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
-      <c r="G386" s="6"/>
-      <c r="H386" s="6"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
-      <c r="G387" s="6"/>
-      <c r="H387" s="6"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
-      <c r="G388" s="6"/>
-      <c r="H388" s="6"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
-      <c r="G389" s="6"/>
-      <c r="H389" s="6"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
-      <c r="G390" s="6"/>
-      <c r="H390" s="6"/>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
-      <c r="G391" s="6"/>
-      <c r="H391" s="6"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
-      <c r="G392" s="6"/>
-      <c r="H392" s="6"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="6"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
-      <c r="G394" s="6"/>
-      <c r="H394" s="6"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
-      <c r="G395" s="6"/>
-      <c r="H395" s="6"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
-      <c r="G396" s="6"/>
-      <c r="H396" s="6"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
-      <c r="G397" s="6"/>
-      <c r="H397" s="6"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
-      <c r="G398" s="6"/>
-      <c r="H398" s="6"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
-      <c r="G399" s="6"/>
-      <c r="H399" s="6"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
-      <c r="G400" s="6"/>
-      <c r="H400" s="6"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
-      <c r="G401" s="6"/>
-      <c r="H401" s="6"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
-      <c r="G402" s="6"/>
-      <c r="H402" s="6"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
-      <c r="G403" s="6"/>
-      <c r="H403" s="6"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
-      <c r="G404" s="6"/>
-      <c r="H404" s="6"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
-      <c r="G405" s="6"/>
-      <c r="H405" s="6"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
-      <c r="G406" s="6"/>
-      <c r="H406" s="6"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
-      <c r="G407" s="6"/>
-      <c r="H407" s="6"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
-      <c r="G408" s="6"/>
-      <c r="H408" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6950,7 +6355,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7022,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -7078,7 +6483,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -7134,7 +6539,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -7190,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>

--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
-    <sheet name="fixed_rank|托管占位" sheetId="34" r:id="rId2"/>
-    <sheet name="rank_time|上榜时间" sheetId="35" r:id="rId3"/>
-    <sheet name="cfg|比赛配置" sheetId="24" r:id="rId4"/>
-    <sheet name="data|比赛数据" sheetId="29" r:id="rId5"/>
-    <sheet name="rank|排名数据" sheetId="30" r:id="rId6"/>
-    <sheet name="signup_spend|报名费" sheetId="33" r:id="rId7"/>
-    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId8"/>
-    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId9"/>
-    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId10"/>
+    <sheet name="signup_time|参赛时段" sheetId="36" r:id="rId2"/>
+    <sheet name="fixed_rank|托管占位" sheetId="34" r:id="rId3"/>
+    <sheet name="rank_time|上榜时间" sheetId="35" r:id="rId4"/>
+    <sheet name="cfg|比赛配置" sheetId="24" r:id="rId5"/>
+    <sheet name="data|比赛数据" sheetId="29" r:id="rId6"/>
+    <sheet name="rank|排名数据" sheetId="30" r:id="rId7"/>
+    <sheet name="signup_spend|报名费" sheetId="33" r:id="rId8"/>
+    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId9"/>
+    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId10"/>
+    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>id|</t>
   </si>
@@ -410,9 +411,6 @@
     <t>power|权重</t>
   </si>
   <si>
-    <t>6720,29580</t>
-  </si>
-  <si>
     <t>29580,45300</t>
   </si>
   <si>
@@ -427,10 +425,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>120,6720</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1050,1399</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -456,6 +450,26 @@
   </si>
   <si>
     <t>250000福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>signup_time_id|参赛时段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>signup_time_id</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>|时长</t>
+  </si>
+  <si>
+    <t>25980,45300</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1040,25 +1054,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="34.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,31 +1087,34 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -1103,31 +1122,34 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="G2" s="19">
         <v>1</v>
       </c>
       <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -1135,31 +1157,34 @@
       <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" s="18">
-        <v>2</v>
       </c>
       <c r="G3" s="18">
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="31">
         <v>2</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
       </c>
       <c r="J3" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1167,31 +1192,34 @@
       <c r="D4" s="18">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="18">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="F4" s="18">
-        <v>3</v>
       </c>
       <c r="G4" s="18">
         <v>3</v>
       </c>
       <c r="H4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
         <v>3</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
       </c>
       <c r="J4" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1199,149 +1227,167 @@
       <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="18">
         <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="G5" s="18">
         <v>4</v>
       </c>
       <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="31">
         <v>4</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
       </c>
       <c r="J5" s="31">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F9" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1351,6 +1397,333 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -1750,10 +2123,2360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>25200</v>
+      </c>
+      <c r="D2">
+        <v>25800</v>
+      </c>
+      <c r="E2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>27000</v>
+      </c>
+      <c r="D3">
+        <v>27600</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>28800</v>
+      </c>
+      <c r="D4">
+        <v>29400</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>30600</v>
+      </c>
+      <c r="D5">
+        <v>31200</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>32400</v>
+      </c>
+      <c r="D6">
+        <v>33000</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>34200</v>
+      </c>
+      <c r="D7">
+        <v>34800</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>36000</v>
+      </c>
+      <c r="D8">
+        <v>36600</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>37800</v>
+      </c>
+      <c r="D9">
+        <v>38400</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>39600</v>
+      </c>
+      <c r="D10">
+        <v>40200</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>41400</v>
+      </c>
+      <c r="D11">
+        <v>42000</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>43200</v>
+      </c>
+      <c r="D12">
+        <v>43800</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>45000</v>
+      </c>
+      <c r="D13">
+        <v>45600</v>
+      </c>
+      <c r="E13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>46800</v>
+      </c>
+      <c r="D14">
+        <v>47400</v>
+      </c>
+      <c r="E14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>48600</v>
+      </c>
+      <c r="D15">
+        <v>49200</v>
+      </c>
+      <c r="E15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>50400</v>
+      </c>
+      <c r="D16">
+        <v>51000</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>52200</v>
+      </c>
+      <c r="D17">
+        <v>52800</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>54000</v>
+      </c>
+      <c r="D18">
+        <v>54600</v>
+      </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>55800</v>
+      </c>
+      <c r="D19">
+        <v>56400</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>57600</v>
+      </c>
+      <c r="D20">
+        <v>58200</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>59400</v>
+      </c>
+      <c r="D21">
+        <v>60000</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>61200</v>
+      </c>
+      <c r="D22">
+        <v>61800</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>63000</v>
+      </c>
+      <c r="D23">
+        <v>63600</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>64800</v>
+      </c>
+      <c r="D24">
+        <v>65400</v>
+      </c>
+      <c r="E24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>66600</v>
+      </c>
+      <c r="D25">
+        <v>67200</v>
+      </c>
+      <c r="E25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>68400</v>
+      </c>
+      <c r="D26">
+        <v>69000</v>
+      </c>
+      <c r="E26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>70200</v>
+      </c>
+      <c r="D27">
+        <v>70800</v>
+      </c>
+      <c r="E27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>72000</v>
+      </c>
+      <c r="D28">
+        <v>72600</v>
+      </c>
+      <c r="E28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>73800</v>
+      </c>
+      <c r="D29">
+        <v>74400</v>
+      </c>
+      <c r="E29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>75600</v>
+      </c>
+      <c r="D30">
+        <v>76200</v>
+      </c>
+      <c r="E30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>77400</v>
+      </c>
+      <c r="D31">
+        <v>78000</v>
+      </c>
+      <c r="E31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>79200</v>
+      </c>
+      <c r="D32">
+        <v>79800</v>
+      </c>
+      <c r="E32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>81000</v>
+      </c>
+      <c r="D33">
+        <v>81600</v>
+      </c>
+      <c r="E33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>82800</v>
+      </c>
+      <c r="D34">
+        <v>83400</v>
+      </c>
+      <c r="E34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>84600</v>
+      </c>
+      <c r="D35">
+        <v>85200</v>
+      </c>
+      <c r="E35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>25200</v>
+      </c>
+      <c r="D36">
+        <v>25800</v>
+      </c>
+      <c r="E36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>27000</v>
+      </c>
+      <c r="D37">
+        <v>27600</v>
+      </c>
+      <c r="E37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>28800</v>
+      </c>
+      <c r="D38">
+        <v>29400</v>
+      </c>
+      <c r="E38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>30600</v>
+      </c>
+      <c r="D39">
+        <v>31200</v>
+      </c>
+      <c r="E39">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>32400</v>
+      </c>
+      <c r="D40">
+        <v>33000</v>
+      </c>
+      <c r="E40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>34200</v>
+      </c>
+      <c r="D41">
+        <v>34800</v>
+      </c>
+      <c r="E41">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>36000</v>
+      </c>
+      <c r="D42">
+        <v>36600</v>
+      </c>
+      <c r="E42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>37800</v>
+      </c>
+      <c r="D43">
+        <v>38400</v>
+      </c>
+      <c r="E43">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>39600</v>
+      </c>
+      <c r="D44">
+        <v>40200</v>
+      </c>
+      <c r="E44">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>41400</v>
+      </c>
+      <c r="D45">
+        <v>42000</v>
+      </c>
+      <c r="E45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>43200</v>
+      </c>
+      <c r="D46">
+        <v>43800</v>
+      </c>
+      <c r="E46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>45000</v>
+      </c>
+      <c r="D47">
+        <v>45600</v>
+      </c>
+      <c r="E47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>46800</v>
+      </c>
+      <c r="D48">
+        <v>47400</v>
+      </c>
+      <c r="E48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>48600</v>
+      </c>
+      <c r="D49">
+        <v>49200</v>
+      </c>
+      <c r="E49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>50400</v>
+      </c>
+      <c r="D50">
+        <v>51000</v>
+      </c>
+      <c r="E50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>52200</v>
+      </c>
+      <c r="D51">
+        <v>52800</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>54000</v>
+      </c>
+      <c r="D52">
+        <v>54600</v>
+      </c>
+      <c r="E52">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>55800</v>
+      </c>
+      <c r="D53">
+        <v>56400</v>
+      </c>
+      <c r="E53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>57600</v>
+      </c>
+      <c r="D54">
+        <v>58200</v>
+      </c>
+      <c r="E54">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>59400</v>
+      </c>
+      <c r="D55">
+        <v>60000</v>
+      </c>
+      <c r="E55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>61200</v>
+      </c>
+      <c r="D56">
+        <v>61800</v>
+      </c>
+      <c r="E56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>63000</v>
+      </c>
+      <c r="D57">
+        <v>63600</v>
+      </c>
+      <c r="E57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>64800</v>
+      </c>
+      <c r="D58">
+        <v>65400</v>
+      </c>
+      <c r="E58">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>66600</v>
+      </c>
+      <c r="D59">
+        <v>67200</v>
+      </c>
+      <c r="E59">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>68400</v>
+      </c>
+      <c r="D60">
+        <v>69000</v>
+      </c>
+      <c r="E60">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>70200</v>
+      </c>
+      <c r="D61">
+        <v>70800</v>
+      </c>
+      <c r="E61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>72000</v>
+      </c>
+      <c r="D62">
+        <v>72600</v>
+      </c>
+      <c r="E62">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>73800</v>
+      </c>
+      <c r="D63">
+        <v>74400</v>
+      </c>
+      <c r="E63">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>75600</v>
+      </c>
+      <c r="D64">
+        <v>76200</v>
+      </c>
+      <c r="E64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>77400</v>
+      </c>
+      <c r="D65">
+        <v>78000</v>
+      </c>
+      <c r="E65">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>79200</v>
+      </c>
+      <c r="D66">
+        <v>79800</v>
+      </c>
+      <c r="E66">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>81000</v>
+      </c>
+      <c r="D67">
+        <v>81600</v>
+      </c>
+      <c r="E67">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>82800</v>
+      </c>
+      <c r="D68">
+        <v>83400</v>
+      </c>
+      <c r="E68">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>84600</v>
+      </c>
+      <c r="D69">
+        <v>85200</v>
+      </c>
+      <c r="E69">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>25200</v>
+      </c>
+      <c r="D70">
+        <v>25800</v>
+      </c>
+      <c r="E70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>27000</v>
+      </c>
+      <c r="D71">
+        <v>27600</v>
+      </c>
+      <c r="E71">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>28800</v>
+      </c>
+      <c r="D72">
+        <v>29400</v>
+      </c>
+      <c r="E72">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>30600</v>
+      </c>
+      <c r="D73">
+        <v>31200</v>
+      </c>
+      <c r="E73">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>32400</v>
+      </c>
+      <c r="D74">
+        <v>33000</v>
+      </c>
+      <c r="E74">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>34200</v>
+      </c>
+      <c r="D75">
+        <v>34800</v>
+      </c>
+      <c r="E75">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>36000</v>
+      </c>
+      <c r="D76">
+        <v>36600</v>
+      </c>
+      <c r="E76">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>37800</v>
+      </c>
+      <c r="D77">
+        <v>38400</v>
+      </c>
+      <c r="E77">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>39600</v>
+      </c>
+      <c r="D78">
+        <v>40200</v>
+      </c>
+      <c r="E78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>41400</v>
+      </c>
+      <c r="D79">
+        <v>42000</v>
+      </c>
+      <c r="E79">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>43200</v>
+      </c>
+      <c r="D80">
+        <v>43800</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>45000</v>
+      </c>
+      <c r="D81">
+        <v>45600</v>
+      </c>
+      <c r="E81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>46800</v>
+      </c>
+      <c r="D82">
+        <v>47400</v>
+      </c>
+      <c r="E82">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>48600</v>
+      </c>
+      <c r="D83">
+        <v>49200</v>
+      </c>
+      <c r="E83">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>50400</v>
+      </c>
+      <c r="D84">
+        <v>51000</v>
+      </c>
+      <c r="E84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>52200</v>
+      </c>
+      <c r="D85">
+        <v>52800</v>
+      </c>
+      <c r="E85">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>54000</v>
+      </c>
+      <c r="D86">
+        <v>54600</v>
+      </c>
+      <c r="E86">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>55800</v>
+      </c>
+      <c r="D87">
+        <v>56400</v>
+      </c>
+      <c r="E87">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>57600</v>
+      </c>
+      <c r="D88">
+        <v>58200</v>
+      </c>
+      <c r="E88">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>59400</v>
+      </c>
+      <c r="D89">
+        <v>60000</v>
+      </c>
+      <c r="E89">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>61200</v>
+      </c>
+      <c r="D90">
+        <v>61800</v>
+      </c>
+      <c r="E90">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>63000</v>
+      </c>
+      <c r="D91">
+        <v>63600</v>
+      </c>
+      <c r="E91">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>64800</v>
+      </c>
+      <c r="D92">
+        <v>65400</v>
+      </c>
+      <c r="E92">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>66600</v>
+      </c>
+      <c r="D93">
+        <v>67200</v>
+      </c>
+      <c r="E93">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>68400</v>
+      </c>
+      <c r="D94">
+        <v>69000</v>
+      </c>
+      <c r="E94">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>70200</v>
+      </c>
+      <c r="D95">
+        <v>70800</v>
+      </c>
+      <c r="E95">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>72000</v>
+      </c>
+      <c r="D96">
+        <v>72600</v>
+      </c>
+      <c r="E96">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>73800</v>
+      </c>
+      <c r="D97">
+        <v>74400</v>
+      </c>
+      <c r="E97">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>75600</v>
+      </c>
+      <c r="D98">
+        <v>76200</v>
+      </c>
+      <c r="E98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>77400</v>
+      </c>
+      <c r="D99">
+        <v>78000</v>
+      </c>
+      <c r="E99">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>79200</v>
+      </c>
+      <c r="D100">
+        <v>79800</v>
+      </c>
+      <c r="E100">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>81000</v>
+      </c>
+      <c r="D101">
+        <v>81600</v>
+      </c>
+      <c r="E101">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>82800</v>
+      </c>
+      <c r="D102">
+        <v>83400</v>
+      </c>
+      <c r="E102">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>84600</v>
+      </c>
+      <c r="D103">
+        <v>85200</v>
+      </c>
+      <c r="E103">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>25200</v>
+      </c>
+      <c r="D104">
+        <v>25800</v>
+      </c>
+      <c r="E104">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>27000</v>
+      </c>
+      <c r="D105">
+        <v>27600</v>
+      </c>
+      <c r="E105">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>28800</v>
+      </c>
+      <c r="D106">
+        <v>29400</v>
+      </c>
+      <c r="E106">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>30600</v>
+      </c>
+      <c r="D107">
+        <v>31200</v>
+      </c>
+      <c r="E107">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>32400</v>
+      </c>
+      <c r="D108">
+        <v>33000</v>
+      </c>
+      <c r="E108">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>34200</v>
+      </c>
+      <c r="D109">
+        <v>34800</v>
+      </c>
+      <c r="E109">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>36000</v>
+      </c>
+      <c r="D110">
+        <v>36600</v>
+      </c>
+      <c r="E110">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>37800</v>
+      </c>
+      <c r="D111">
+        <v>38400</v>
+      </c>
+      <c r="E111">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>39600</v>
+      </c>
+      <c r="D112">
+        <v>40200</v>
+      </c>
+      <c r="E112">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>41400</v>
+      </c>
+      <c r="D113">
+        <v>42000</v>
+      </c>
+      <c r="E113">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>43200</v>
+      </c>
+      <c r="D114">
+        <v>43800</v>
+      </c>
+      <c r="E114">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>45000</v>
+      </c>
+      <c r="D115">
+        <v>45600</v>
+      </c>
+      <c r="E115">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>46800</v>
+      </c>
+      <c r="D116">
+        <v>47400</v>
+      </c>
+      <c r="E116">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>48600</v>
+      </c>
+      <c r="D117">
+        <v>49200</v>
+      </c>
+      <c r="E117">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>50400</v>
+      </c>
+      <c r="D118">
+        <v>51000</v>
+      </c>
+      <c r="E118">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>52200</v>
+      </c>
+      <c r="D119">
+        <v>52800</v>
+      </c>
+      <c r="E119">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>54000</v>
+      </c>
+      <c r="D120">
+        <v>54600</v>
+      </c>
+      <c r="E120">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>55800</v>
+      </c>
+      <c r="D121">
+        <v>56400</v>
+      </c>
+      <c r="E121">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>57600</v>
+      </c>
+      <c r="D122">
+        <v>58200</v>
+      </c>
+      <c r="E122">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>59400</v>
+      </c>
+      <c r="D123">
+        <v>60000</v>
+      </c>
+      <c r="E123">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>61200</v>
+      </c>
+      <c r="D124">
+        <v>61800</v>
+      </c>
+      <c r="E124">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>63000</v>
+      </c>
+      <c r="D125">
+        <v>63600</v>
+      </c>
+      <c r="E125">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>64800</v>
+      </c>
+      <c r="D126">
+        <v>65400</v>
+      </c>
+      <c r="E126">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>66600</v>
+      </c>
+      <c r="D127">
+        <v>67200</v>
+      </c>
+      <c r="E127">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>68400</v>
+      </c>
+      <c r="D128">
+        <v>69000</v>
+      </c>
+      <c r="E128">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>70200</v>
+      </c>
+      <c r="D129">
+        <v>70800</v>
+      </c>
+      <c r="E129">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>72000</v>
+      </c>
+      <c r="D130">
+        <v>72600</v>
+      </c>
+      <c r="E130">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>73800</v>
+      </c>
+      <c r="D131">
+        <v>74400</v>
+      </c>
+      <c r="E131">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>75600</v>
+      </c>
+      <c r="D132">
+        <v>76200</v>
+      </c>
+      <c r="E132">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>77400</v>
+      </c>
+      <c r="D133">
+        <v>78000</v>
+      </c>
+      <c r="E133">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>79200</v>
+      </c>
+      <c r="D134">
+        <v>79800</v>
+      </c>
+      <c r="E134">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>81000</v>
+      </c>
+      <c r="D135">
+        <v>81600</v>
+      </c>
+      <c r="E135">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>82800</v>
+      </c>
+      <c r="D136">
+        <v>83400</v>
+      </c>
+      <c r="E136">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>84600</v>
+      </c>
+      <c r="D137">
+        <v>85200</v>
+      </c>
+      <c r="E137">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1897,12 +4620,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1939,10 +4662,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D2" s="31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1957,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1975,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="31">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1990,36 +4713,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="31">
-        <v>30</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="31">
-        <v>40</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
@@ -2029,38 +4748,42 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="31">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="31">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2070,13 +4793,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="31">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2086,13 +4809,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="31">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2102,13 +4825,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2118,185 +4841,57 @@
         <v>12</v>
       </c>
       <c r="B13" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="31">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K13" s="33"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>3</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="31">
-        <v>10</v>
-      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>3</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="31">
-        <v>30</v>
-      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="31">
-        <v>40</v>
-      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31">
-        <v>4</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="31">
-        <v>15</v>
-      </c>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="31">
-        <v>4</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="31">
-        <v>5</v>
-      </c>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
-        <v>18</v>
-      </c>
-      <c r="B19" s="31">
-        <v>4</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="31">
-        <v>10</v>
-      </c>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="31">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31">
-        <v>4</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="31">
-        <v>30</v>
-      </c>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="31">
-        <v>20</v>
-      </c>
-      <c r="B21" s="31">
-        <v>4</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="31">
-        <v>40</v>
-      </c>
-      <c r="K21" s="33"/>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2305,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2444,7 +5039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -2599,7 +5194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2645,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>36</v>
@@ -2664,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -2683,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -2700,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -2717,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -2734,7 +5329,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -2751,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>55</v>
@@ -2768,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -2785,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -2804,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -2823,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -2842,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -2869,7 +5464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -3173,7 +5768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F408"/>
   <sheetViews>
@@ -6348,331 +8943,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="4" width="27.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="3"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>id|</t>
   </si>
@@ -470,6 +470,59 @@
   </si>
   <si>
     <t>25980,45300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4回馈赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,9999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_vip4_match</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,99999999999</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +713,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +827,24 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1056,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,13 +1321,39 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="40">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>4</v>
+      </c>
+      <c r="K6" s="31">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -1401,7 +1498,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C18" sqref="C18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1648,39 +1745,116 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>51100</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
@@ -1720,6 +1894,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1728,7 +1903,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G20:G21"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1998,30 +2173,62 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50000</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20000</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10000</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5000</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="J21" s="36"/>
       <c r="K21" s="37"/>
@@ -2031,10 +2238,18 @@
       <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3000</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -2044,6 +2259,18 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2000</v>
+      </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
       <c r="L23" s="39"/>
@@ -2052,6 +2279,18 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1000</v>
+      </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="39"/>
@@ -2060,6 +2299,18 @@
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="6">
+        <v>500</v>
+      </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -2123,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4465,9 +4716,11 @@
         <v>600</v>
       </c>
     </row>
+    <row r="138" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4476,7 +4729,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4624,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4854,14 +5107,17 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="35"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="35"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="35"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
@@ -4905,7 +5161,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D21:D25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5002,9 +5258,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>600</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -5044,7 +5309,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5182,6 +5447,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>4</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5199,7 +5487,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5446,14 +5734,37 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
@@ -5469,7 +5780,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5738,6 +6049,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30">
+        <v>13</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+    </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E29" s="27"/>
     </row>
@@ -5773,7 +6101,7 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5978,6 +6306,48 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10000</v>
+      </c>
+    </row>
     <row r="27" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>

--- a/config_Release/bullet_rank_match_server.xlsx
+++ b/config_Release/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>id|</t>
   </si>
@@ -523,6 +523,10 @@
   </si>
   <si>
     <t>0,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1127,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="41">
         <v>4</v>
@@ -1497,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1835,8 +1839,8 @@
       <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
-        <v>51100</v>
+      <c r="C24" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -4729,7 +4733,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5309,7 +5313,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5461,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="42">
         <v>1000</v>
@@ -6101,7 +6105,7 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
